--- a/aichan/548649447496976818_2021-07-18_12-00-04.xlsx
+++ b/aichan/548649447496976818_2021-07-18_12-00-04.xlsx
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -15582,7 +15582,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -21205,7 +21205,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21494,7 +21494,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21634,7 +21634,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24893,7 +24893,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -26735,7 +26735,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27464,7 +27464,7 @@
         </is>
       </c>
       <c r="I374" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34724,7 +34724,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -35304,7 +35304,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35977,7 +35977,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36257,7 +36257,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36483,7 +36483,7 @@
         </is>
       </c>
       <c r="I497" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J497" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36795,7 +36795,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37426,7 +37426,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -39174,7 +39174,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39999,7 +39999,7 @@
         </is>
       </c>
       <c r="I545" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J545" t="inlineStr">
         <is>
@@ -40154,7 +40154,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40560,7 +40560,7 @@
         </is>
       </c>
       <c r="I553" t="n">
-        <v>1841</v>
+        <v>1848</v>
       </c>
       <c r="J553" t="inlineStr">
         <is>

--- a/aichan/548649447496976818_2021-07-18_12-00-04.xlsx
+++ b/aichan/548649447496976818_2021-07-18_12-00-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4955140139</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:18:09</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44398.01260416667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:58:16</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44396.8737962963</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -681,10 +693,8 @@
           <t>4944983006</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-19 18:12:32</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44396.7587037037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>4944175129</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-19 16:07:22</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44396.67178240741</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-19 15:11:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44396.63331018519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -883,10 +889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-19 14:28:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44396.60342592592</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -956,10 +960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:17:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44396.51217592593</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1028,10 +1030,8 @@
           <t>4942691305</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:02:44</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44396.50189814815</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1095,10 +1095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:29:32</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44396.47884259259</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1158,10 +1156,8 @@
           <t>4942350868</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:08:18</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44396.46409722222</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1260,10 +1256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:30:36</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44396.43791666667</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
@@ -1327,10 +1321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:16:50</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44396.42835648148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1398,10 +1390,8 @@
           <t>4941823072</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:28:08</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44396.39453703703</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1477,10 +1467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:42:05</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44396.02922453704</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -1544,10 +1532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:31:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44396.02172453704</v>
       </c>
       <c r="I16" t="n">
         <v>6</v>
@@ -1611,10 +1597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:16:09</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44396.01121527778</v>
       </c>
       <c r="I17" t="n">
         <v>11</v>
@@ -1678,10 +1662,8 @@
           <t>4939745082</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:39:28</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44395.94407407408</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1749,10 +1731,8 @@
           <t>4939733870</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:39:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44395.94384259259</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1820,10 +1800,8 @@
           <t>4939694851</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:34:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44395.9403125</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1893,10 +1871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:31:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.93834490741</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1964,10 +1940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:03:57</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.87774305556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2035,10 +2009,8 @@
           <t>4938758083</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:35:58</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.85831018518</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2114,10 +2086,8 @@
           <t>4938766274</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:31:58</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.8555324074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2189,10 +2159,8 @@
           <t>4938758083</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:31:18</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.85506944444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2264,10 +2232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:45:01</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44395.78126157408</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2339,10 +2305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:44:57</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44395.78121527778</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2414,10 +2378,8 @@
           <t>4937871910</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:24:09</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44395.76677083333</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2481,10 +2443,8 @@
           <t>4937740412</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:05:01</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44395.7534837963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2552,10 +2512,8 @@
           <t>4935961722</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:04:24</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44395.75305555556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2623,10 +2581,8 @@
           <t>4937041527</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:53:40</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44395.74560185185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2696,10 +2652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:50:21</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44395.74329861111</v>
       </c>
       <c r="I32" t="n">
         <v>32</v>
@@ -2767,10 +2721,8 @@
           <t>4936363880</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:47:16</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44395.74115740741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2838,10 +2790,8 @@
           <t>4937410081</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:15:35</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44395.71915509259</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2909,10 +2859,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:14:49</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44395.71862268518</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2980,10 +2928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:06:02</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44395.71252314815</v>
       </c>
       <c r="I36" t="n">
         <v>12</v>
@@ -3047,10 +2993,8 @@
           <t>4935608057</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:01:48</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44395.70958333334</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3126,10 +3070,8 @@
           <t>4937237884</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:48:24</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44395.70027777777</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3193,10 +3135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:45:24</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44395.69819444444</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3272,10 +3212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:43:33</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44395.69690972222</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3351,10 +3289,8 @@
           <t>4937151735</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:33:04</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44395.68962962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3430,10 +3366,8 @@
           <t>4937041527</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:31:21</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44395.6884375</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3497,10 +3431,8 @@
           <t>4936046385</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:29:28</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44395.68712962963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3576,10 +3508,8 @@
           <t>4937081751</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:22:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44395.68211805556</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3643,10 +3573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:19:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44395.68032407408</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
@@ -3722,10 +3650,8 @@
           <t>4937041527</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:14:31</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44395.67674768518</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3790,10 +3716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:13:46</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44395.67622685185</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3857,10 +3781,8 @@
           <t>4936934387</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:57:03</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44395.66461805555</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3928,10 +3850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44395.66434027778</v>
       </c>
       <c r="I49" t="n">
         <v>14</v>
@@ -4003,10 +3923,8 @@
           <t>4936928252</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:03</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44395.66392361111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4078,10 +3996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:53:34</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44395.66219907408</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4145,10 +4061,8 @@
           <t>4936916279</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:52:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44395.6615625</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4221,10 +4135,8 @@
           <t>4936907198</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:52:06</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44395.66118055556</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4300,10 +4212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:47:28</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44395.65796296296</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -4375,10 +4285,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:43:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44395.65486111111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4446,10 +4354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:39:38</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44395.65252314815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4526,10 +4432,8 @@
           <t>4936835587</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:38:49</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44395.65195601852</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4598,10 +4502,8 @@
           <t>4936828145</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:38:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44395.65142361111</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4677,10 +4579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44395.64798611111</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4756,10 +4656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:32:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44395.64768518518</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4835,10 +4733,8 @@
           <t>4936796684</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:32:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44395.64730324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4910,10 +4806,8 @@
           <t>4935910947</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:30:28</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44395.64615740741</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4981,10 +4875,8 @@
           <t>4935608057</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:29:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44395.64561342593</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5052,10 +4944,8 @@
           <t>4935518674</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:28:34</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44395.64483796297</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5123,10 +5013,8 @@
           <t>4935713902</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:24:28</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44395.64199074074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5198,10 +5086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:24:21</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44395.64190972222</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5283,10 +5169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:25</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44395.64056712963</v>
       </c>
       <c r="I67" t="n">
         <v>5</v>
@@ -5350,10 +5234,8 @@
           <t>4936363880</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:48</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44395.63944444444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5421,10 +5303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:18:56</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44395.63814814815</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5488,10 +5368,8 @@
           <t>4936707579</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:51</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44395.63670138889</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5555,10 +5433,8 @@
           <t>4935506599</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44395.63521990741</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5634,10 +5510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:38</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44395.63516203704</v>
       </c>
       <c r="I72" t="n">
         <v>6</v>
@@ -5697,10 +5571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:39</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44395.63447916666</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5772,10 +5644,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44395.62858796296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5843,10 +5713,8 @@
           <t>4936637935</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:20</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44395.62800925926</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5918,10 +5786,8 @@
           <t>4936628096</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:16</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44395.62726851852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5985,10 +5851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:13</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44395.62653935186</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -6052,10 +5916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:00</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44395.62361111111</v>
       </c>
       <c r="I78" t="n">
         <v>7</v>
@@ -6132,10 +5994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:31</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44395.62327546296</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6207,10 +6067,8 @@
           <t>4936600721</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:30</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44395.62326388889</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6286,10 +6144,8 @@
           <t>4936605575</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:29</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44395.62325231481</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6353,10 +6209,8 @@
           <t>4936596357</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:10</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44395.62303240741</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6416,10 +6270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:55:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44395.62215277777</v>
       </c>
       <c r="I83" t="n">
         <v>8</v>
@@ -6479,10 +6331,8 @@
           <t>4936566412</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:52:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44395.61949074074</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6550,10 +6400,8 @@
           <t>4935980409</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:51:02</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44395.61877314815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6621,10 +6469,8 @@
           <t>4935980409</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:50:18</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44395.61826388889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6692,10 +6538,8 @@
           <t>4935912356</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:49:36</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44395.61777777778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6773,10 +6617,8 @@
           <t>4936555709</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:49:19</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44395.61758101852</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6844,10 +6686,8 @@
           <t>4936555644</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:49:18</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44395.61756944445</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6924,10 +6764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:48:17</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44395.61686342592</v>
       </c>
       <c r="I90" t="n">
         <v>4</v>
@@ -6991,10 +6829,8 @@
           <t>4935517563</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:47:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44395.61657407408</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7066,10 +6902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:46:14</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44395.61543981481</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7141,10 +6975,8 @@
           <t>4936529716</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:45:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44395.61526620371</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7212,10 +7044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:45:55</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44395.61521990741</v>
       </c>
       <c r="I94" t="n">
         <v>7</v>
@@ -7289,10 +7119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:45:54</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44395.61520833334</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
@@ -7362,10 +7190,8 @@
           <t>4936523438</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:45:23</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44395.61484953704</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7437,10 +7263,8 @@
           <t>4936527902</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:45:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44395.61461805556</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7504,10 +7328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:44:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44395.61440972222</v>
       </c>
       <c r="I98" t="n">
         <v>10</v>
@@ -7579,10 +7401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:43:24</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44395.61347222222</v>
       </c>
       <c r="I99" t="n">
         <v>5</v>
@@ -7658,10 +7478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:42:58</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44395.6131712963</v>
       </c>
       <c r="I100" t="n">
         <v>35</v>
@@ -7725,10 +7543,8 @@
           <t>4936506853</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:41:49</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44395.61237268519</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7796,10 +7612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:39:56</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44395.61106481482</v>
       </c>
       <c r="I102" t="n">
         <v>7</v>
@@ -7875,10 +7689,8 @@
           <t>4936489649</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:38:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44395.61034722222</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7954,10 +7766,8 @@
           <t>4936477839</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:36:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44395.60901620371</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8025,10 +7835,8 @@
           <t>4936477520</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:36:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44395.60890046296</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8104,10 +7912,8 @@
           <t>4936477147</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:36:37</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44395.60876157408</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8167,10 +7973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44395.60797453704</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8246,10 +8050,8 @@
           <t>4936468718</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:19</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44395.6078587963</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8317,10 +8119,8 @@
           <t>4936412663</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:07</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44395.60771990741</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8384,10 +8184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:02</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44395.60766203704</v>
       </c>
       <c r="I110" t="n">
         <v>6</v>
@@ -8455,10 +8253,8 @@
           <t>4936463886</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:34:51</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44395.60753472222</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8526,10 +8322,8 @@
           <t>4936460143</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:32:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44395.60613425926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8593,10 +8387,8 @@
           <t>4936443566</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:30:46</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44395.60469907407</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8664,10 +8456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:28:44</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44395.60328703704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8735,10 +8525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:28:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44395.60289351852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8814,10 +8602,8 @@
           <t>4935526454</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:26:10</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44395.60150462963</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8881,10 +8667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:26:07</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44395.60146990741</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8952,10 +8736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:25:53</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44395.60130787037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9019,10 +8801,8 @@
           <t>4936409386</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:25:34</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44395.60108796296</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9094,10 +8874,8 @@
           <t>4936412663</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:25:21</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44395.6009375</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9165,10 +8943,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:25:00</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44395.60069444445</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9232,10 +9008,8 @@
           <t>4935961722</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:23:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44395.59995370371</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9299,10 +9073,8 @@
           <t>4936394923</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:23:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44395.59954861111</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9370,10 +9142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:22:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44395.59913194444</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9445,10 +9215,8 @@
           <t>4936397268</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:22:39</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44395.5990625</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9512,10 +9280,8 @@
           <t>4935961722</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:22:02</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44395.59863425926</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9579,10 +9345,8 @@
           <t>4936384966</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:21:31</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44395.59827546297</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9650,10 +9414,8 @@
           <t>4936390932</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:21:25</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44395.59820601852</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9725,10 +9487,8 @@
           <t>4935977311</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:20:55</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44395.5978587963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9792,10 +9552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:20:45</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44395.59774305556</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -9871,10 +9629,8 @@
           <t>4936099726</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:20:04</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44395.59726851852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9946,10 +9702,8 @@
           <t>4935912356</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:18:05</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44395.5958912037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10017,10 +9771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:17:57</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44395.59579861111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10092,10 +9844,8 @@
           <t>4936367189</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:17:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44395.59555555556</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10167,10 +9917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:17:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44395.59541666666</v>
       </c>
       <c r="I135" t="n">
         <v>31</v>
@@ -10234,10 +9982,8 @@
           <t>4936362506</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:17:17</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44395.59533564815</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -10313,10 +10059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:16:54</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44395.59506944445</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10380,10 +10124,8 @@
           <t>4936354616</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:16:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44395.59466435185</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10451,10 +10193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:16:18</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44395.59465277778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10526,10 +10266,8 @@
           <t>4936349713</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:15:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44395.594375</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10597,10 +10335,8 @@
           <t>4936355373</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:14:23</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44395.59332175926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10668,10 +10404,8 @@
           <t>4936344097</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:13:43</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44395.5928587963</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10743,10 +10477,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:13:30</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44395.59270833333</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10814,10 +10546,8 @@
           <t>4936337455</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:12:46</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44395.59219907408</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10889,10 +10619,8 @@
           <t>4936332014</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:12:07</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44395.59174768518</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10964,10 +10692,8 @@
           <t>4936331126</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:11:40</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44395.59143518518</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11031,10 +10757,8 @@
           <t>4936046385</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:10:16</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44395.59046296297</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11102,10 +10826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:10:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44395.59030092593</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11173,10 +10895,8 @@
           <t>4936321266</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:09:34</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44395.58997685185</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11248,10 +10968,8 @@
           <t>4936304705</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:08:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44395.58929398148</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11319,10 +11037,8 @@
           <t>4936301469</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:07:01</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44395.58820601852</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11394,10 +11110,8 @@
           <t>4935616831</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:06:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44395.5877662037</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -11461,10 +11175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:06:19</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44395.58771990741</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11540,10 +11252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:06:04</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44395.58754629629</v>
       </c>
       <c r="I154" t="n">
         <v>4</v>
@@ -11607,10 +11317,8 @@
           <t>4936288933</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:05:45</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44395.58732638889</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11686,10 +11394,8 @@
           <t>4936262588</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:05:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44395.58688657408</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11749,10 +11455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:02:26</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44395.58502314815</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -11816,10 +11520,8 @@
           <t>4935485682</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:00:26</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44395.58363425926</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11895,10 +11597,8 @@
           <t>4936262588</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:00:17</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44395.58353009259</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11963,10 +11663,8 @@
           <t>4936254499</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:59:04</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44395.58268518518</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12034,10 +11732,8 @@
           <t>4936248784</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:58:28</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44395.58226851852</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12109,10 +11805,8 @@
           <t>4936206630</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:58:09</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44395.58204861111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12184,10 +11878,8 @@
           <t>4936246779</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:32</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44395.58162037037</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12251,10 +11943,8 @@
           <t>4936250351</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:05</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44395.58130787037</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12330,10 +12020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44395.5812962963</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12397,10 +12085,8 @@
           <t>4936222649</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44395.58113425926</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12472,10 +12158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44395.58112268519</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12543,10 +12227,8 @@
           <t>4936240567</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:18</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44395.58076388889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12618,10 +12300,8 @@
           <t>4936231898</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:15</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44395.58072916666</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12693,10 +12373,8 @@
           <t>4936238492</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:11</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44395.58068287037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12768,10 +12446,8 @@
           <t>4936236530</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:55:14</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44395.58002314815</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12843,10 +12519,8 @@
           <t>4935977311</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:54:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44395.57983796296</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12918,10 +12592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:53:50</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44395.57905092592</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12994,10 +12666,8 @@
           <t>4936222649</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:53:21</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44395.57871527778</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13061,10 +12731,8 @@
           <t>4936206630</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:52:24</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44395.57805555555</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13136,10 +12804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:52:10</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44395.57789351852</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13203,10 +12869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:52:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44395.5778125</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13270,10 +12934,8 @@
           <t>4936203379</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:51:06</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44395.57715277778</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13341,10 +13003,8 @@
           <t>4936206630</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:50:31</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44395.57674768518</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13416,10 +13076,8 @@
           <t>4936046385</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44395.57631944444</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13495,10 +13153,8 @@
           <t>4936197984</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:52</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44395.5762962963</v>
       </c>
       <c r="I181" t="n">
         <v>4</v>
@@ -13574,10 +13230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:36</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44395.57611111111</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13649,10 +13303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:21</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44395.5759375</v>
       </c>
       <c r="I183" t="n">
         <v>6</v>
@@ -13728,10 +13380,8 @@
           <t>4936193926</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:15</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44395.57586805556</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13795,10 +13445,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:48:38</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44395.57543981481</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -13866,10 +13514,8 @@
           <t>4936169197</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:45:24</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44395.57319444444</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13945,10 +13591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:44:01</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44395.57223379629</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14024,10 +13668,8 @@
           <t>4936161691</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:43:24</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44395.57180555556</v>
       </c>
       <c r="I188" t="n">
         <v>4</v>
@@ -14099,10 +13741,8 @@
           <t>4936143233</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:41:36</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44395.57055555555</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14166,10 +13806,8 @@
           <t>4936151388</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:41:29</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44395.57047453704</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14237,10 +13875,8 @@
           <t>4935891507</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:41:25</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44395.57042824074</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14308,10 +13944,8 @@
           <t>4936071709</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:40:23</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44395.56971064815</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14383,10 +14017,8 @@
           <t>4935980409</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:40:03</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44395.56947916667</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -14454,10 +14086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:39:51</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44395.56934027778</v>
       </c>
       <c r="I194" t="n">
         <v>16</v>
@@ -14529,10 +14159,8 @@
           <t>4936127268</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:38:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44395.56861111111</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14604,10 +14232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:38:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44395.56847222222</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
@@ -14675,10 +14301,8 @@
           <t>4936016807</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:38:32</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44395.56842592593</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14746,10 +14370,8 @@
           <t>4936125777</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:38:06</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44395.568125</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14821,10 +14443,8 @@
           <t>4936114645</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:37:35</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44395.56776620371</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14896,10 +14516,8 @@
           <t>4936114630</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:37:35</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44395.56776620371</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15000,10 +14618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:36:05</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44395.56672453704</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15079,10 +14695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:35:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44395.56663194444</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15146,10 +14760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:35:56</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44395.56662037037</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15213,10 +14825,8 @@
           <t>4936053358</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:35:52</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44395.56657407407</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15288,10 +14898,8 @@
           <t>4936099726</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:35:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44395.56619212963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15359,10 +14967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:35:12</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44395.56611111111</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15426,10 +15032,8 @@
           <t>4936098980</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:34:59</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44395.56596064815</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -15505,10 +15109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:34:10</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44395.56539351852</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15580,10 +15182,8 @@
           <t>4936096921</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:34:02</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44395.56530092593</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15647,10 +15247,8 @@
           <t>4936101329</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:33:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44395.56523148148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15718,10 +15316,8 @@
           <t>4936083355</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:32:26</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44395.56418981482</v>
       </c>
       <c r="I211" t="n">
         <v>8</v>
@@ -15789,10 +15385,8 @@
           <t>4936064456</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:31:50</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44395.56377314815</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15864,10 +15458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:31:44</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44395.5637037037</v>
       </c>
       <c r="I213" t="n">
         <v>10</v>
@@ -15939,10 +15531,8 @@
           <t>4935891507</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:31:40</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44395.56365740741</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16010,10 +15600,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:31:19</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44395.56341435185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16085,10 +15673,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:30:50</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44395.5630787037</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16161,10 +15747,8 @@
           <t>4936071709</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:29:18</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44395.56201388889</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16236,10 +15820,8 @@
           <t>4936071263</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:29:06</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44395.561875</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16311,10 +15893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:28:39</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44395.5615625</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16390,10 +15970,8 @@
           <t>4936064456</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:28:30</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44395.56145833333</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16465,10 +16043,8 @@
           <t>4936053358</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:27:36</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44395.56083333334</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16540,10 +16116,8 @@
           <t>4936052599</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:27:14</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44395.56057870371</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16615,10 +16189,8 @@
           <t>4936055979</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:26:42</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44395.56020833334</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -16686,10 +16258,8 @@
           <t>4936051226</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:26:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44395.56008101852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16761,10 +16331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:25:24</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44395.55930555556</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16832,10 +16400,8 @@
           <t>4936046385</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:53</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44395.55894675926</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16895,10 +16461,8 @@
           <t>4936046074</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:45</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44395.55885416667</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16970,10 +16534,8 @@
           <t>4936040948</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:24:24</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44395.55861111111</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17049,10 +16611,8 @@
           <t>4935713902</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:23:19</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44395.5578587963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17112,10 +16672,8 @@
           <t>4936016337</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:22:05</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44395.55700231482</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17186,10 +16744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:21:47</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44395.55679398148</v>
       </c>
       <c r="I231" t="n">
         <v>115</v>
@@ -17257,10 +16813,8 @@
           <t>4936016807</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:33</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44395.5559375</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17324,10 +16878,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:28</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44395.55587962963</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17395,10 +16947,8 @@
           <t>4936016337</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:22</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44395.55581018519</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17466,10 +17016,8 @@
           <t>4936011774</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:16</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44395.55574074074</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17560,10 +17108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:46</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44395.55539351852</v>
       </c>
       <c r="I236" t="n">
         <v>28</v>
@@ -17623,10 +17169,8 @@
           <t>4936010594</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44395.55538194445</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17694,10 +17238,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:42</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44395.55534722222</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17765,10 +17307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:26</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44395.55516203704</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17844,10 +17384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:58</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44395.55483796296</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17915,10 +17453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:21</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44395.55440972222</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17982,10 +17518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:17:42</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44395.55395833333</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18057,10 +17591,8 @@
           <t>4935984593</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:17:04</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44395.55351851852</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18128,10 +17660,8 @@
           <t>4935977311</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:51</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44395.55336805555</v>
       </c>
       <c r="I244" t="n">
         <v>14</v>
@@ -18203,10 +17733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:38</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44395.55321759259</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18282,10 +17810,8 @@
           <t>4935982626</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:13</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44395.55292824074</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18357,10 +17883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:03</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44395.5528125</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18436,10 +17960,8 @@
           <t>4935986428</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:02</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44395.55280092593</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18512,10 +18034,8 @@
           <t>4935980409</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:15:16</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44395.55226851852</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18591,10 +18111,8 @@
           <t>4935977311</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:15:01</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44395.55209490741</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18662,10 +18180,8 @@
           <t>4935969797</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:59</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44395.55207175926</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18729,10 +18245,8 @@
           <t>4935975405</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:08</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44395.55148148148</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18796,10 +18310,8 @@
           <t>4935912457</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:13:38</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44395.55113425926</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -18871,10 +18383,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:13:27</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44395.55100694444</v>
       </c>
       <c r="I254" t="n">
         <v>5</v>
@@ -18942,10 +18452,8 @@
           <t>4935963053</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:13:02</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44395.5507175926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19009,10 +18517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:12:40</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44395.55046296296</v>
       </c>
       <c r="I256" t="n">
         <v>11</v>
@@ -19088,10 +18594,8 @@
           <t>4935961722</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:12:25</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44395.55028935185</v>
       </c>
       <c r="I257" t="n">
         <v>8</v>
@@ -19155,10 +18659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:11:53</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44395.54991898148</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19226,10 +18728,8 @@
           <t>4935960372</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:11:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44395.54984953703</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19305,10 +18805,8 @@
           <t>4935939812</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:10:41</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44395.54908564815</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19376,10 +18874,8 @@
           <t>4935939608</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:10:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44395.54902777778</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19455,10 +18951,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:09:59</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44395.54859953704</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19526,10 +19020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:09:40</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44395.54837962963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19593,10 +19085,8 @@
           <t>4935923794</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:08:04</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44395.54726851852</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19660,10 +19150,8 @@
           <t>4935932134</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:57</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44395.5471875</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19735,10 +19223,8 @@
           <t>4935922842</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:40</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44395.54699074074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19802,10 +19288,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44395.54686342592</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -19873,10 +19357,8 @@
           <t>4935921429</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:25</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44395.54681712963</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19936,10 +19418,8 @@
           <t>4935925897</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:10</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44395.54664351852</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20015,10 +19495,8 @@
           <t>4935921429</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:04</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44395.54657407408</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20094,10 +19572,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:07:01</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44395.54653935185</v>
       </c>
       <c r="I271" t="n">
         <v>5</v>
@@ -20165,10 +19641,8 @@
           <t>4935914895</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44395.54635416667</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20240,10 +19714,8 @@
           <t>4935898164</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:43</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44395.54633101852</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20320,10 +19792,8 @@
           <t>4935920434</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44395.54627314815</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20387,10 +19857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44395.54608796296</v>
       </c>
       <c r="I275" t="n">
         <v>7</v>
@@ -20458,10 +19926,8 @@
           <t>4935871682</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44395.54599537037</v>
       </c>
       <c r="I276" t="n">
         <v>9</v>
@@ -20529,10 +19995,8 @@
           <t>4935909328</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:09</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44395.5459375</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20608,10 +20072,8 @@
           <t>4935898164</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:48</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44395.54569444444</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20675,10 +20137,8 @@
           <t>4935912457</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:41</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44395.54561342593</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20754,10 +20214,8 @@
           <t>4935912356</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:39</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44395.54559027778</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20827,10 +20285,8 @@
           <t>4935898164</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:28</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44395.54546296296</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20894,10 +20350,8 @@
           <t>4935915943</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:05</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44395.54519675926</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20973,10 +20427,8 @@
           <t>4935910947</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:05:03</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44395.54517361111</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21048,10 +20500,8 @@
           <t>4935894813</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:04:15</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44395.54461805556</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21119,10 +20569,8 @@
           <t>4935882252</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:04:13</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44395.54459490741</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21199,10 +20647,8 @@
           <t>4935893967</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:53</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44395.54436342593</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21270,10 +20716,8 @@
           <t>4935898164</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:47</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44395.54429398148</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21350,10 +20794,8 @@
           <t>4935882252</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:36</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44395.54416666667</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21417,10 +20859,8 @@
           <t>4935902477</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:34</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44395.54414351852</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21488,10 +20928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:31</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44395.5441087963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21559,10 +20997,8 @@
           <t>4935902243</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:28</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44395.54407407407</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21626,10 +21062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:27</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44395.5440625</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21699,10 +21133,8 @@
           <t>4935897116</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:18</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44395.54395833334</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21778,10 +21210,8 @@
           <t>4935891507</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:02:52</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44395.5436574074</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21849,10 +21279,8 @@
           <t>4935891422</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:02:50</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44395.54363425926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21916,10 +21344,8 @@
           <t>4935888233</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:01:49</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44395.54292824074</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21987,10 +21413,8 @@
           <t>4935883448</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:01:36</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44395.54277777778</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22050,10 +21474,8 @@
           <t>4935886669</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:01:10</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44395.54247685185</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22117,10 +21539,8 @@
           <t>4935882252</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:01:06</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44395.54243055556</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22197,10 +21617,8 @@
           <t>4935875246</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:00:12</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44395.54180555556</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22268,10 +21686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:00:01</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44395.54167824074</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22343,10 +21759,8 @@
           <t>4935869308</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44395.5415625</v>
       </c>
       <c r="I302" t="n">
         <v>4</v>
@@ -22422,10 +21836,8 @@
           <t>4935869144</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:47</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44395.5415162037</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22485,10 +21897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:34</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44395.54136574074</v>
       </c>
       <c r="I304" t="n">
         <v>5</v>
@@ -22564,10 +21974,8 @@
           <t>4935872747</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:30</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44395.54131944444</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22643,10 +22051,8 @@
           <t>4935863528</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:25</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44395.54126157407</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22710,10 +22116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:05</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44395.54103009259</v>
       </c>
       <c r="I307" t="n">
         <v>13</v>
@@ -22777,10 +22181,8 @@
           <t>4935871682</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:04</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44395.54101851852</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22848,10 +22250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:00</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44395.54097222222</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22915,10 +22315,8 @@
           <t>4935871415</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:58:57</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44395.5409375</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22978,10 +22376,8 @@
           <t>4935736647</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:58:46</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44395.54081018519</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23049,10 +22445,8 @@
           <t>4935854155</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:38</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44395.54002314815</v>
       </c>
       <c r="I312" t="n">
         <v>15</v>
@@ -23128,10 +22522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:21</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44395.53982638889</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23199,10 +22591,8 @@
           <t>4935846374</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:56:05</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44395.53894675926</v>
       </c>
       <c r="I314" t="n">
         <v>4</v>
@@ -23266,10 +22656,8 @@
           <t>4935839951</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:50</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44395.53877314815</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23333,10 +22721,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:44</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44395.53870370371</v>
       </c>
       <c r="I316" t="n">
         <v>6</v>
@@ -23404,10 +22790,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:43</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44395.53869212963</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23471,10 +22855,8 @@
           <t>4935845529</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:41</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44395.53866898148</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23542,10 +22924,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:29</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44395.53853009259</v>
       </c>
       <c r="I319" t="n">
         <v>9</v>
@@ -23613,10 +22993,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:21</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44395.5384375</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23676,10 +23054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44395.53834490741</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23749,10 +23125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:54:27</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44395.5378125</v>
       </c>
       <c r="I322" t="n">
         <v>30</v>
@@ -23820,10 +23194,8 @@
           <t>4935828014</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:53:13</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44395.53695601852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23891,10 +23263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:52:14</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44395.53627314815</v>
       </c>
       <c r="I324" t="n">
         <v>15</v>
@@ -23958,10 +23328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:52:05</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44395.53616898148</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24025,10 +23393,8 @@
           <t>4935736647</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:51:55</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44395.53605324074</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24092,10 +23458,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:50:50</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44395.53530092593</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24155,10 +23519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:50:36</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44395.53513888889</v>
       </c>
       <c r="I328" t="n">
         <v>15</v>
@@ -24231,10 +23593,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:50:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44395.53503472222</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24306,10 +23666,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:49:27</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44395.53434027778</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24381,10 +23739,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:49:12</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44395.53416666666</v>
       </c>
       <c r="I331" t="n">
         <v>5</v>
@@ -24448,10 +23804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:48:53</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44395.53394675926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24524,10 +23878,8 @@
           <t>4935736647</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:48:43</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44395.53383101852</v>
       </c>
       <c r="I333" t="n">
         <v>5</v>
@@ -24595,10 +23947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:48:33</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44395.53371527778</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24670,10 +24020,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:47:39</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44395.53309027778</v>
       </c>
       <c r="I335" t="n">
         <v>8</v>
@@ -24733,10 +24081,8 @@
           <t>4935787831</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:47:32</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44395.53300925926</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24812,10 +24158,8 @@
           <t>4935783271</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:47:01</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44395.53265046296</v>
       </c>
       <c r="I337" t="n">
         <v>4</v>
@@ -24879,10 +24223,8 @@
           <t>4935783133</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:58</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44395.53261574074</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24958,10 +24300,8 @@
           <t>4935518985</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:54</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44395.53256944445</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25025,10 +24365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:51</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44395.53253472222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25092,10 +24430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:19</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44395.53216435185</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25171,10 +24507,8 @@
           <t>4935736647</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:01</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44395.53195601852</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25238,10 +24572,8 @@
           <t>4935767441</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:44:34</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44395.53094907408</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25309,10 +24641,8 @@
           <t>4935762609</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:44:09</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44395.53065972222</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25384,10 +24714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:43:52</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44395.53046296296</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25451,10 +24779,8 @@
           <t>4935761907</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:43:51</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44395.53045138889</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25530,10 +24856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:42:44</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44395.52967592593</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25597,10 +24921,8 @@
           <t>4935747571</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:42:03</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44395.52920138889</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25670,10 +24992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:44</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44395.52898148148</v>
       </c>
       <c r="I349" t="n">
         <v>13</v>
@@ -25737,10 +25057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44395.52896990741</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25812,10 +25130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:34</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44395.52886574074</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25879,10 +25195,8 @@
           <t>4935717078</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:31</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44395.52883101852</v>
       </c>
       <c r="I352" t="n">
         <v>6</v>
@@ -25946,10 +25260,8 @@
           <t>4935745867</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:19</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44395.52869212963</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26017,10 +25329,8 @@
           <t>4935744033</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:10</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44395.52858796297</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26084,10 +25394,8 @@
           <t>4935739211</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:07</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44395.52855324074</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26152,10 +25460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:40:27</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44395.52809027778</v>
       </c>
       <c r="I356" t="n">
         <v>27</v>
@@ -26223,10 +25529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:40:06</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44395.52784722222</v>
       </c>
       <c r="I357" t="n">
         <v>19</v>
@@ -26290,10 +25594,8 @@
           <t>4935736647</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:40:01</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44395.52778935185</v>
       </c>
       <c r="I358" t="n">
         <v>10</v>
@@ -26357,10 +25659,8 @@
           <t>4935735476</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:39:32</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44395.5274537037</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26428,10 +25728,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:48</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44395.52694444444</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26503,10 +25801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:18</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44395.52659722222</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26582,10 +25878,8 @@
           <t>4935717078</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:37:32</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44395.52606481482</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26657,10 +25951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:37:27</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44395.52600694444</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26724,10 +26016,8 @@
           <t>4935725298</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:37:19</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44395.52591435185</v>
       </c>
       <c r="I364" t="n">
         <v>19</v>
@@ -26800,10 +26090,8 @@
           <t>4935714636</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:37:01</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44395.52570601852</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26879,10 +26167,8 @@
           <t>4935713902</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:43</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44395.52549768519</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26954,10 +26240,8 @@
           <t>4935709230</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:38</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44395.52543981482</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27021,10 +26305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:37</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44395.52542824074</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27100,10 +26382,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:31</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44395.52535879629</v>
       </c>
       <c r="I369" t="n">
         <v>8</v>
@@ -27167,10 +26447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:21</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44395.52524305556</v>
       </c>
       <c r="I370" t="n">
         <v>5</v>
@@ -27242,10 +26520,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:01</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44395.52501157407</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27305,10 +26581,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:35:29</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44395.5246412037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27380,10 +26654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:35:16</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44395.52449074074</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27459,10 +26731,8 @@
           <t>4935705087</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:34:44</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44395.52412037037</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27533,10 +26803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:34:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44395.52405092592</v>
       </c>
       <c r="I375" t="n">
         <v>699</v>
@@ -27608,10 +26876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:34:38</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44395.52405092592</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -27684,10 +26950,8 @@
           <t>4935485682</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:34:06</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44395.52368055555</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27751,10 +27015,8 @@
           <t>4935693584</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:34:02</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44395.52363425926</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -27831,10 +27093,8 @@
           <t>4935692469</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:33</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44395.52329861111</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27898,10 +27158,8 @@
           <t>4935696200</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:25</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44395.52320601852</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -27977,10 +27235,8 @@
           <t>4935695644</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:10</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44395.52303240741</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28048,10 +27304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:32:37</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44395.52265046296</v>
       </c>
       <c r="I382" t="n">
         <v>15</v>
@@ -28111,10 +27365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:54</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44395.52145833334</v>
       </c>
       <c r="I383" t="n">
         <v>15</v>
@@ -28182,10 +27434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:37</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44395.52126157407</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28261,10 +27511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44395.52101851852</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28328,10 +27576,8 @@
           <t>4935659996</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:06</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44395.52090277777</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28409,10 +27655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:00</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44395.52083333334</v>
       </c>
       <c r="I387" t="n">
         <v>11</v>
@@ -28476,10 +27720,8 @@
           <t>4935529478</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:53</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44395.52075231481</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28555,10 +27797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:40</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44395.52060185185</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28622,10 +27862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:36</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44395.52055555556</v>
       </c>
       <c r="I390" t="n">
         <v>5</v>
@@ -28701,10 +27939,8 @@
           <t>4935592804</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:24</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44395.52041666667</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28780,10 +28016,8 @@
           <t>4935665980</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:05</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44395.52019675926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28851,10 +28085,8 @@
           <t>4935548285</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:28:56</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44395.52009259259</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28918,10 +28150,8 @@
           <t>4935665435</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:28:51</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44395.52003472222</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28985,10 +28215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:28:37</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44395.51987268519</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29053,10 +28281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:28:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44395.51958333333</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29124,10 +28350,8 @@
           <t>4935652150</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:53</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44395.51936342593</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29195,10 +28419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:46</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44395.5192824074</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29274,10 +28496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:32</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44395.51912037037</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29353,10 +28573,8 @@
           <t>4935502583</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:21</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44395.51899305556</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29420,10 +28638,8 @@
           <t>4935643712</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:13</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44395.51890046296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29491,10 +28707,8 @@
           <t>4935643435</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:05</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44395.51880787037</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -29566,10 +28780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:51</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44395.51864583333</v>
       </c>
       <c r="I403" t="n">
         <v>5</v>
@@ -29645,10 +28857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:35</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44395.51846064815</v>
       </c>
       <c r="I404" t="n">
         <v>10</v>
@@ -29737,10 +28947,8 @@
           <t>4935646401</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:34</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44395.51844907407</v>
       </c>
       <c r="I405" t="n">
         <v>8</v>
@@ -29812,10 +29020,8 @@
           <t>4935529478</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:25:50</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44395.51793981482</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29891,10 +29097,8 @@
           <t>4935640658</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:25:48</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44395.51791666666</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29962,10 +29166,8 @@
           <t>4935592804</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:25:39</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44395.5178125</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30029,10 +29231,8 @@
           <t>4935633290</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:25:14</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44395.51752314815</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -30108,10 +29308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:24:20</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44395.51689814815</v>
       </c>
       <c r="I410" t="n">
         <v>5</v>
@@ -30179,10 +29377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:24:14</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44395.5168287037</v>
       </c>
       <c r="I411" t="n">
         <v>9</v>
@@ -30262,10 +29458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:35</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44395.51637731482</v>
       </c>
       <c r="I412" t="n">
         <v>13</v>
@@ -30330,10 +29524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:18</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44395.51618055555</v>
       </c>
       <c r="I413" t="n">
         <v>6</v>
@@ -30401,10 +29593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:11</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44395.51609953704</v>
       </c>
       <c r="I414" t="n">
         <v>9</v>
@@ -30464,10 +29654,8 @@
           <t>4935506599</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:02</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44395.51599537037</v>
       </c>
       <c r="I415" t="n">
         <v>5</v>
@@ -30543,10 +29731,8 @@
           <t>4935616831</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:29</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44395.51561342592</v>
       </c>
       <c r="I416" t="n">
         <v>22</v>
@@ -30622,10 +29808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:05</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44395.51533564815</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30689,10 +29873,8 @@
           <t>4935609475</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:00</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44395.51527777778</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30764,10 +29946,8 @@
           <t>4935615040</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:21:45</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44395.51510416667</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30835,10 +30015,8 @@
           <t>4935608057</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:21:25</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44395.51487268518</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30914,10 +30092,8 @@
           <t>4935606975</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:57</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44395.51454861111</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -30985,10 +30161,8 @@
           <t>4935602805</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:47</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44395.51443287037</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31056,10 +30230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:39</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44395.51434027778</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31127,10 +30299,8 @@
           <t>4935506599</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:02</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44395.51391203704</v>
       </c>
       <c r="I424" t="n">
         <v>7</v>
@@ -31198,10 +30368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:59</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44395.51387731481</v>
       </c>
       <c r="I425" t="n">
         <v>17</v>
@@ -31269,10 +30437,8 @@
           <t>4935597079</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:33</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44395.51357638889</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31336,10 +30502,8 @@
           <t>4935589690</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44395.51350694444</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31399,10 +30563,8 @@
           <t>4935518674</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:22</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44395.51344907407</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31470,10 +30632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:17</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44395.51339120371</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31549,10 +30709,8 @@
           <t>4935592804</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:11</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44395.51332175926</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31628,10 +30786,8 @@
           <t>4935588593</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:18:57</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44395.51315972222</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31709,10 +30865,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:18:47</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44395.51304398148</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31783,10 +30937,8 @@
           <t>4935595214</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:18:40</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44395.51296296297</v>
       </c>
       <c r="I433" t="n">
         <v>4</v>
@@ -31854,10 +31006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:17:31</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44395.51216435185</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -31926,10 +31076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:17:03</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44395.51184027778</v>
       </c>
       <c r="I435" t="n">
         <v>5</v>
@@ -32007,10 +31155,8 @@
           <t>4935574219</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:17:03</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44395.51184027778</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32074,10 +31220,8 @@
           <t>4935573308</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:39</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44395.5115625</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32149,10 +31293,8 @@
           <t>4935580798</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:37</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44395.51153935185</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32224,10 +31366,8 @@
           <t>4935580626</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:33</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44395.51149305556</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32303,10 +31443,8 @@
           <t>4935518674</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:27</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44395.51142361111</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32375,10 +31513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:16</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44395.5112962963</v>
       </c>
       <c r="I441" t="n">
         <v>9</v>
@@ -32450,10 +31586,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:12</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44395.51125</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32532,10 +31666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:05</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44395.51116898148</v>
       </c>
       <c r="I443" t="n">
         <v>82</v>
@@ -32603,10 +31735,8 @@
           <t>4935571935</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:03</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44395.51114583333</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32682,10 +31812,8 @@
           <t>4935569077</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:50</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44395.51099537037</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32753,10 +31881,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44395.51087962963</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32832,10 +31958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:30</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44395.51076388889</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32899,10 +32023,8 @@
           <t>4935568245</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:27</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44395.51072916666</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32974,10 +32096,8 @@
           <t>4935563570</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:13</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44395.51056712963</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33041,10 +32161,8 @@
           <t>4935518674</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:12</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44395.51055555556</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33104,10 +32222,8 @@
           <t>4935566905</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:51</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44395.5103125</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33179,10 +32295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:45</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44395.51024305556</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33254,10 +32368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44395.51017361111</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33321,10 +32433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:31</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44395.51008101852</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33384,10 +32494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:29</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44395.51005787037</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33447,10 +32555,8 @@
           <t>4935561802</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:27</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44395.51003472223</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33526,10 +32632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:15</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44395.50989583333</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33593,10 +32697,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:11</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44395.50984953704</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33664,10 +32766,8 @@
           <t>4935561113</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44395.50982638889</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33743,10 +32843,8 @@
           <t>4935529478</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:01</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44395.50973379629</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -33814,10 +32912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:57</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44395.5096875</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33881,10 +32977,8 @@
           <t>4935560461</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:53</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44395.5096412037</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -33960,10 +33054,8 @@
           <t>4935485682</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:33</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44395.50940972222</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34039,10 +33131,8 @@
           <t>4935553869</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:29</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44395.50936342592</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34114,10 +33204,8 @@
           <t>4935555617</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:20</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44395.50925925926</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34193,10 +33281,8 @@
           <t>4935549169</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:19</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44395.50924768519</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34272,10 +33358,8 @@
           <t>4935548285</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:56</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44395.50898148148</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34347,10 +33431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:50</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44395.50891203704</v>
       </c>
       <c r="I468" t="n">
         <v>16</v>
@@ -34426,10 +33508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:48</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44395.50888888889</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34501,10 +33581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:41</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44395.50880787037</v>
       </c>
       <c r="I470" t="n">
         <v>9</v>
@@ -34568,10 +33646,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:39</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44395.50878472222</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34643,10 +33719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:08</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44395.50842592592</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34718,10 +33792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:03</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44395.50836805555</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34789,10 +33861,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:59</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44395.50832175926</v>
       </c>
       <c r="I474" t="n">
         <v>4</v>
@@ -34863,10 +33933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:38</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44395.5080787037</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -34938,10 +34006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:38</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44395.5080787037</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35005,10 +34071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:32</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44395.50800925926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35076,10 +34140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:11</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44395.5077662037</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35147,10 +34209,8 @@
           <t>4935533485</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:03</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44395.50767361111</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35219,10 +34279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:52</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44395.5075462963</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35290,10 +34348,8 @@
           <t>4935529478</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:45</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44395.50746527778</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35369,10 +34425,8 @@
           <t>4935532857</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:45</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44395.50746527778</v>
       </c>
       <c r="I482" t="n">
         <v>5</v>
@@ -35436,10 +34490,8 @@
           <t>4935532355</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:32</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44395.50731481481</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35515,10 +34567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:31</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44395.50730324074</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35594,10 +34644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:30</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44395.50729166667</v>
       </c>
       <c r="I485" t="n">
         <v>4</v>
@@ -35665,10 +34713,8 @@
           <t>4935528863</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:30</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44395.50729166667</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35744,10 +34790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:13</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44395.50709490741</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35823,10 +34867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:10</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44395.50706018518</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35894,10 +34936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:05</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44395.50700231481</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35975,10 +35015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:50</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44395.50682870371</v>
       </c>
       <c r="I490" t="n">
         <v>8</v>
@@ -36042,10 +35080,8 @@
           <t>4935526915</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44395.50671296296</v>
       </c>
       <c r="I491" t="n">
         <v>9</v>
@@ -36113,10 +35149,8 @@
           <t>4935526454</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:27</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44395.5065625</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36180,10 +35214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:10</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44395.50636574074</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36251,10 +35283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:03</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44395.50628472222</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36322,10 +35352,8 @@
           <t>4935518985</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:00</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44395.50625</v>
       </c>
       <c r="I495" t="n">
         <v>13</v>
@@ -36394,10 +35422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:52</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44395.50615740741</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36473,10 +35499,8 @@
           <t>4935518674</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:51</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44395.50614583334</v>
       </c>
       <c r="I497" t="n">
         <v>29</v>
@@ -36552,10 +35576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:37</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44395.5059837963</v>
       </c>
       <c r="I498" t="n">
         <v>417</v>
@@ -36627,10 +35649,8 @@
           <t>4935514254</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:34</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44395.50594907408</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -36702,10 +35722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:31</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44395.50591435185</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36781,10 +35799,8 @@
           <t>4935517563</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:21</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44395.50579861111</v>
       </c>
       <c r="I501" t="n">
         <v>4</v>
@@ -36860,10 +35876,8 @@
           <t>4935513425</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:15</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44395.50572916667</v>
       </c>
       <c r="I502" t="n">
         <v>4</v>
@@ -36927,10 +35941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:55</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44395.50549768518</v>
       </c>
       <c r="I503" t="n">
         <v>5</v>
@@ -36998,10 +36010,8 @@
           <t>4935506599</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:25</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44395.50515046297</v>
       </c>
       <c r="I504" t="n">
         <v>79</v>
@@ -37073,10 +36083,8 @@
           <t>4935511268</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:21</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44395.50510416667</v>
       </c>
       <c r="I505" t="n">
         <v>19</v>
@@ -37144,10 +36152,8 @@
           <t>4935509461</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:11</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44395.50498842593</v>
       </c>
       <c r="I506" t="n">
         <v>3</v>
@@ -37207,10 +36213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:07</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44395.50494212963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37286,10 +36290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:53</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44395.50478009259</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37349,10 +36351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:23</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44395.50443287037</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37420,10 +36420,8 @@
           <t>4935502583</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:07</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44395.50424768519</v>
       </c>
       <c r="I510" t="n">
         <v>14</v>
@@ -37491,10 +36489,8 @@
           <t>4935506599</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:59</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44395.5041550926</v>
       </c>
       <c r="I511" t="n">
         <v>44</v>
@@ -37562,10 +36558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:52</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44395.50407407407</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37629,10 +36623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:50</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44395.50405092593</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37708,10 +36700,8 @@
           <t>4935506020</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:46</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44395.50400462963</v>
       </c>
       <c r="I514" t="n">
         <v>2</v>
@@ -37779,10 +36769,8 @@
           <t>4935501679</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:42</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44395.50395833333</v>
       </c>
       <c r="I515" t="n">
         <v>3</v>
@@ -37858,10 +36846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:30</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44395.50381944444</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37929,10 +36915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:29</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44395.50380787037</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38000,10 +36984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:26</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44395.50377314815</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38071,10 +37053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:24</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44395.50375</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38142,10 +37122,8 @@
           <t>4935500868</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:20</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44395.5037037037</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38217,10 +37195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:15</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44395.50364583333</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38296,10 +37272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:12</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44395.50361111111</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38363,10 +37337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:12</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44395.50361111111</v>
       </c>
       <c r="I523" t="n">
         <v>9</v>
@@ -38442,10 +37414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:07</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44395.50355324074</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38513,10 +37483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:07</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44395.50355324074</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38588,10 +37556,8 @@
           <t>4935494228</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:01</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44395.5034837963</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38655,10 +37621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:26</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44395.5030787037</v>
       </c>
       <c r="I527" t="n">
         <v>15</v>
@@ -38734,10 +37698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:19</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44395.50299768519</v>
       </c>
       <c r="I528" t="n">
         <v>6</v>
@@ -38805,10 +37767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:16</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44395.50296296296</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38884,10 +37844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:04</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44395.50282407407</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38955,10 +37913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:45</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44395.50260416666</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39030,10 +37986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:32</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44395.5024537037</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39097,10 +38051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:26</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44395.50238425926</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39168,10 +38120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:21</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44395.50232638889</v>
       </c>
       <c r="I534" t="n">
         <v>10</v>
@@ -39239,10 +38189,8 @@
           <t>4935486397</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:17</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44395.50228009259</v>
       </c>
       <c r="I535" t="n">
         <v>10</v>
@@ -39322,10 +38270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:13</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44395.50223379629</v>
       </c>
       <c r="I536" t="n">
         <v>9</v>
@@ -39393,10 +38339,8 @@
           <t>4935486147</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:11</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44395.50221064815</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39468,10 +38412,8 @@
           <t>4935485682</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:01</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44395.50209490741</v>
       </c>
       <c r="I538" t="n">
         <v>21</v>
@@ -39539,10 +38481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:41</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44395.50186342592</v>
       </c>
       <c r="I539" t="n">
         <v>38</v>
@@ -39618,10 +38558,8 @@
           <t>4935474350</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:29</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44395.50172453704</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39689,10 +38627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:28</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44395.50171296296</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39760,10 +38696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:21</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44395.50163194445</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39831,10 +38765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:12</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44395.50152777778</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39914,10 +38846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:11</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44395.5015162037</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39989,10 +38919,8 @@
           <t>4935477096</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:10</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44395.50150462963</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40068,10 +38996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:07</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44395.50146990741</v>
       </c>
       <c r="I546" t="n">
         <v>245</v>
@@ -40148,10 +39074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:02</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44395.50141203704</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40219,10 +39143,8 @@
           <t>4935473076</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:01</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44395.50140046296</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40286,10 +39208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:58</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44395.50136574074</v>
       </c>
       <c r="I549" t="n">
         <v>3</v>
@@ -40349,10 +39269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:54</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44395.50131944445</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40420,10 +39338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:53</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44395.50130787037</v>
       </c>
       <c r="I551" t="n">
         <v>4</v>
@@ -40487,10 +39403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:49</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44395.50126157407</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40550,10 +39464,8 @@
           <t>4935467802</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:48</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44395.50125</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40629,10 +39541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:47</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44395.50123842592</v>
       </c>
       <c r="I554" t="n">
         <v>1849</v>
@@ -40700,10 +39610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:45</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44395.50121527778</v>
       </c>
       <c r="I555" t="n">
         <v>60</v>
@@ -40779,10 +39687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:40</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44395.50115740741</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40852,10 +39758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:35</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44395.50109953704</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40919,10 +39823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:31</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44395.50105324074</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40998,10 +39900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:27</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44395.50100694445</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41065,10 +39965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:26</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44395.50099537037</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41132,10 +40030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:23</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44395.50096064815</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41203,10 +40099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:13</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44395.50084490741</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41274,10 +40168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:13</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44395.50084490741</v>
       </c>
       <c r="I563" t="n">
         <v>349</v>
@@ -41356,10 +40248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:08</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44395.50078703704</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41435,10 +40325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:05</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44395.50075231482</v>
       </c>
       <c r="I565" t="n">
         <v>1</v>
@@ -41510,10 +40398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:58</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44395.50067129629</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41585,10 +40471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:57</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44395.50065972222</v>
       </c>
       <c r="I567" t="n">
         <v>5</v>
@@ -41660,10 +40544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:55</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44395.50063657408</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41740,10 +40622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:54</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44395.500625</v>
       </c>
       <c r="I569" t="n">
         <v>9</v>
@@ -41807,10 +40687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:53</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44395.50061342592</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41886,10 +40764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:33</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44395.50038194445</v>
       </c>
       <c r="I571" t="n">
         <v>7</v>
@@ -41953,10 +40829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:27</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44395.5003125</v>
       </c>
       <c r="I572" t="n">
         <v>201</v>
@@ -42020,10 +40894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:27</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44395.5003125</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42083,10 +40955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:25</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44395.50028935185</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42154,10 +41024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:22</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44395.50025462963</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
